--- a/sx5_project/queens.xlsx
+++ b/sx5_project/queens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="323">
   <si>
     <t>First Name</t>
   </si>
@@ -31,859 +31,958 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Candace</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Brandi</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Kristy</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Ashlee</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Katelyn</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Kara</t>
+  </si>
+  <si>
+    <t>Shari</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Theresa</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Colleen</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Rhonda</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Makayla</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Shelia</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Sonya</t>
+  </si>
+  <si>
+    <t>Misty</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Kristina</t>
+  </si>
+  <si>
+    <t>Breanna</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t>Mary</t>
   </si>
   <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Gregory</t>
-  </si>
-  <si>
-    <t>Kaitlyn</t>
-  </si>
-  <si>
-    <t>Leslie</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Brett</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Alicia</t>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Alison</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Gabrielle</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Rachael</t>
-  </si>
-  <si>
-    <t>Lori</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Misty</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Kimberly</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Dalton</t>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
   </si>
   <si>
     <t>Clayton</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Nichole</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Peggy</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>Connie</t>
-  </si>
-  <si>
-    <t>Megan</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-  <si>
-    <t>Penny</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Damon</t>
-  </si>
-  <si>
-    <t>Dominique</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Melanie</t>
-  </si>
-  <si>
-    <t>Dustin</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Isaiah</t>
-  </si>
-  <si>
-    <t>Terri</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Brianna</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Shaun</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Malik</t>
-  </si>
-  <si>
-    <t>Glenda</t>
-  </si>
-  <si>
-    <t>Rick</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>Lynch</t>
-  </si>
-  <si>
-    <t>Graves</t>
-  </si>
-  <si>
-    <t>Garrett</t>
+    <t>Watkins</t>
+  </si>
+  <si>
+    <t>Snyder</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Wilcox</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Mckinney</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Ayers</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>Gordon</t>
   </si>
   <si>
     <t>Matthews</t>
   </si>
   <si>
+    <t>Mullins</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Oconnor</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Hurst</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>Velez</t>
+  </si>
+  <si>
+    <t>Mccoy</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Carlson</t>
-  </si>
-  <si>
-    <t>Nichols</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Mcdaniel</t>
+    <t>Lloyd</t>
   </si>
   <si>
     <t>Gonzalez</t>
   </si>
   <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Bean</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Christensen</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Stafford</t>
-  </si>
-  <si>
-    <t>Allison</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Oconnor</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Fischer</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>Strickland</t>
-  </si>
-  <si>
-    <t>Stephenson</t>
-  </si>
-  <si>
-    <t>Lawson</t>
-  </si>
-  <si>
-    <t>Yoder</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Gonzales</t>
-  </si>
-  <si>
-    <t>Sherman</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>Gibbs</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>Burton</t>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Travis</t>
   </si>
   <si>
     <t>Clark</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Davila</t>
-  </si>
-  <si>
-    <t>Odonnell</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Kramer</t>
-  </si>
-  <si>
-    <t>Dixon</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>Hughes</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Acevedo</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>Osborne</t>
-  </si>
-  <si>
-    <t>Weiss</t>
-  </si>
-  <si>
-    <t>Norman</t>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>M60</t>
   </si>
   <si>
     <t>F60</t>
   </si>
   <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
     <t>F40</t>
   </si>
   <si>
     <t>F70</t>
   </si>
   <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>M60</t>
-  </si>
-  <si>
-    <t>M70</t>
+    <t>MS</t>
   </si>
   <si>
     <t>M50</t>
   </si>
   <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>00:28:19</t>
-  </si>
-  <si>
-    <t>00:21:55</t>
-  </si>
-  <si>
-    <t>00:35:57</t>
-  </si>
-  <si>
-    <t>00:22:05</t>
-  </si>
-  <si>
-    <t>00:33:11</t>
-  </si>
-  <si>
-    <t>00:26:23</t>
-  </si>
-  <si>
-    <t>00:30:23</t>
-  </si>
-  <si>
-    <t>00:22:08</t>
+    <t>00:26:59</t>
+  </si>
+  <si>
+    <t>00:30:27</t>
+  </si>
+  <si>
+    <t>00:21:38</t>
   </si>
   <si>
     <t>00:19:14</t>
   </si>
   <si>
-    <t>00:24:46</t>
-  </si>
-  <si>
-    <t>00:27:19</t>
-  </si>
-  <si>
-    <t>00:30:27</t>
-  </si>
-  <si>
-    <t>00:26:31</t>
-  </si>
-  <si>
-    <t>00:27:12</t>
-  </si>
-  <si>
-    <t>00:32:11</t>
+    <t>00:23:18</t>
+  </si>
+  <si>
+    <t>00:24:11</t>
+  </si>
+  <si>
+    <t>00:20:16</t>
+  </si>
+  <si>
+    <t>00:31:42</t>
+  </si>
+  <si>
+    <t>00:16:11</t>
+  </si>
+  <si>
+    <t>00:31:33</t>
+  </si>
+  <si>
+    <t>00:29:43</t>
+  </si>
+  <si>
+    <t>00:18:40</t>
+  </si>
+  <si>
+    <t>00:22:39</t>
+  </si>
+  <si>
+    <t>00:27:52</t>
+  </si>
+  <si>
+    <t>00:21:29</t>
+  </si>
+  <si>
+    <t>00:35:38</t>
+  </si>
+  <si>
+    <t>00:24:12</t>
+  </si>
+  <si>
+    <t>00:35:05</t>
+  </si>
+  <si>
+    <t>00:19:47</t>
+  </si>
+  <si>
+    <t>00:17:42</t>
+  </si>
+  <si>
+    <t>00:31:40</t>
+  </si>
+  <si>
+    <t>00:19:24</t>
+  </si>
+  <si>
+    <t>00:25:52</t>
+  </si>
+  <si>
+    <t>00:34:14</t>
+  </si>
+  <si>
+    <t>00:27:39</t>
+  </si>
+  <si>
+    <t>00:20:17</t>
+  </si>
+  <si>
+    <t>00:25:31</t>
+  </si>
+  <si>
+    <t>00:24:59</t>
+  </si>
+  <si>
+    <t>00:35:07</t>
+  </si>
+  <si>
+    <t>00:30:03</t>
+  </si>
+  <si>
+    <t>00:19:15</t>
+  </si>
+  <si>
+    <t>00:23:00</t>
+  </si>
+  <si>
+    <t>00:19:22</t>
+  </si>
+  <si>
+    <t>00:31:38</t>
+  </si>
+  <si>
+    <t>00:20:28</t>
+  </si>
+  <si>
+    <t>00:18:16</t>
+  </si>
+  <si>
+    <t>00:21:18</t>
+  </si>
+  <si>
+    <t>00:15:11</t>
+  </si>
+  <si>
+    <t>00:27:23</t>
+  </si>
+  <si>
+    <t>00:22:20</t>
+  </si>
+  <si>
+    <t>00:31:56</t>
+  </si>
+  <si>
+    <t>00:25:36</t>
+  </si>
+  <si>
+    <t>00:23:32</t>
+  </si>
+  <si>
+    <t>00:22:47</t>
+  </si>
+  <si>
+    <t>00:29:58</t>
+  </si>
+  <si>
+    <t>00:22:23</t>
+  </si>
+  <si>
+    <t>00:24:44</t>
+  </si>
+  <si>
+    <t>00:19:53</t>
+  </si>
+  <si>
+    <t>00:18:10</t>
+  </si>
+  <si>
+    <t>00:28:08</t>
+  </si>
+  <si>
+    <t>00:29:17</t>
+  </si>
+  <si>
+    <t>00:27:59</t>
+  </si>
+  <si>
+    <t>00:17:03</t>
+  </si>
+  <si>
+    <t>00:20:08</t>
+  </si>
+  <si>
+    <t>00:20:30</t>
+  </si>
+  <si>
+    <t>00:22:55</t>
+  </si>
+  <si>
+    <t>00:30:01</t>
+  </si>
+  <si>
+    <t>00:20:23</t>
+  </si>
+  <si>
+    <t>00:21:07</t>
+  </si>
+  <si>
+    <t>00:28:10</t>
+  </si>
+  <si>
+    <t>00:15:06</t>
+  </si>
+  <si>
+    <t>00:29:55</t>
+  </si>
+  <si>
+    <t>00:23:36</t>
+  </si>
+  <si>
+    <t>00:30:49</t>
   </si>
   <si>
     <t>00:26:04</t>
   </si>
   <si>
-    <t>00:20:37</t>
-  </si>
-  <si>
-    <t>00:24:43</t>
-  </si>
-  <si>
-    <t>00:21:39</t>
-  </si>
-  <si>
-    <t>00:19:21</t>
-  </si>
-  <si>
-    <t>00:22:28</t>
-  </si>
-  <si>
-    <t>00:31:58</t>
-  </si>
-  <si>
-    <t>00:25:31</t>
-  </si>
-  <si>
-    <t>00:18:01</t>
-  </si>
-  <si>
-    <t>00:17:53</t>
-  </si>
-  <si>
-    <t>00:24:11</t>
-  </si>
-  <si>
-    <t>00:23:15</t>
-  </si>
-  <si>
-    <t>00:20:47</t>
-  </si>
-  <si>
-    <t>00:25:57</t>
-  </si>
-  <si>
-    <t>00:27:50</t>
-  </si>
-  <si>
-    <t>00:27:07</t>
-  </si>
-  <si>
-    <t>00:33:54</t>
-  </si>
-  <si>
-    <t>00:25:38</t>
-  </si>
-  <si>
-    <t>00:26:29</t>
-  </si>
-  <si>
-    <t>00:20:01</t>
-  </si>
-  <si>
-    <t>00:35:40</t>
-  </si>
-  <si>
-    <t>00:28:18</t>
-  </si>
-  <si>
-    <t>00:17:03</t>
-  </si>
-  <si>
-    <t>00:34:47</t>
-  </si>
-  <si>
-    <t>00:19:53</t>
-  </si>
-  <si>
-    <t>00:15:27</t>
-  </si>
-  <si>
-    <t>00:21:52</t>
-  </si>
-  <si>
-    <t>00:33:37</t>
-  </si>
-  <si>
-    <t>00:31:48</t>
-  </si>
-  <si>
-    <t>00:23:00</t>
-  </si>
-  <si>
-    <t>00:25:26</t>
-  </si>
-  <si>
-    <t>00:27:49</t>
-  </si>
-  <si>
-    <t>00:35:51</t>
-  </si>
-  <si>
-    <t>00:27:14</t>
-  </si>
-  <si>
-    <t>00:20:44</t>
-  </si>
-  <si>
-    <t>00:29:07</t>
-  </si>
-  <si>
-    <t>00:32:47</t>
-  </si>
-  <si>
-    <t>00:22:29</t>
-  </si>
-  <si>
-    <t>00:24:15</t>
-  </si>
-  <si>
-    <t>00:25:37</t>
-  </si>
-  <si>
-    <t>00:22:19</t>
-  </si>
-  <si>
-    <t>00:32:21</t>
-  </si>
-  <si>
-    <t>00:26:40</t>
-  </si>
-  <si>
-    <t>00:30:39</t>
-  </si>
-  <si>
-    <t>00:31:55</t>
-  </si>
-  <si>
-    <t>00:34:50</t>
-  </si>
-  <si>
-    <t>00:26:32</t>
-  </si>
-  <si>
-    <t>00:15:37</t>
-  </si>
-  <si>
-    <t>00:30:42</t>
-  </si>
-  <si>
-    <t>00:26:57</t>
+    <t>00:17:13</t>
+  </si>
+  <si>
+    <t>00:26:39</t>
+  </si>
+  <si>
+    <t>00:19:23</t>
+  </si>
+  <si>
+    <t>00:28:37</t>
+  </si>
+  <si>
+    <t>00:20:21</t>
+  </si>
+  <si>
+    <t>00:26:09</t>
+  </si>
+  <si>
+    <t>00:34:28</t>
+  </si>
+  <si>
+    <t>00:32:05</t>
+  </si>
+  <si>
+    <t>00:29:02</t>
+  </si>
+  <si>
+    <t>00:35:44</t>
+  </si>
+  <si>
+    <t>00:23:49</t>
+  </si>
+  <si>
+    <t>00:32:48</t>
+  </si>
+  <si>
+    <t>00:21:58</t>
+  </si>
+  <si>
+    <t>00:35:55</t>
+  </si>
+  <si>
+    <t>00:19:45</t>
+  </si>
+  <si>
+    <t>00:32:42</t>
+  </si>
+  <si>
+    <t>00:19:02</t>
+  </si>
+  <si>
+    <t>00:19:33</t>
+  </si>
+  <si>
+    <t>00:20:49</t>
   </si>
   <si>
     <t>00:21:24</t>
   </si>
   <si>
-    <t>00:28:28</t>
-  </si>
-  <si>
-    <t>00:20:55</t>
-  </si>
-  <si>
-    <t>00:22:59</t>
-  </si>
-  <si>
-    <t>00:18:47</t>
-  </si>
-  <si>
-    <t>00:33:22</t>
-  </si>
-  <si>
-    <t>00:17:37</t>
-  </si>
-  <si>
-    <t>00:18:57</t>
-  </si>
-  <si>
-    <t>00:33:47</t>
-  </si>
-  <si>
-    <t>00:16:51</t>
-  </si>
-  <si>
-    <t>00:34:25</t>
-  </si>
-  <si>
-    <t>00:35:55</t>
-  </si>
-  <si>
-    <t>00:24:55</t>
-  </si>
-  <si>
-    <t>00:34:33</t>
-  </si>
-  <si>
-    <t>00:35:48</t>
-  </si>
-  <si>
-    <t>00:23:37</t>
-  </si>
-  <si>
-    <t>00:24:54</t>
+    <t>00:28:07</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,16 +1375,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1293,16 +1392,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1310,16 +1409,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1327,16 +1426,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1344,16 +1443,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1361,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1378,16 +1477,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1395,16 +1494,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1412,16 +1511,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1429,16 +1528,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1446,16 +1545,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1463,16 +1562,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1480,16 +1579,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1497,16 +1596,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1514,16 +1613,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1531,16 +1630,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1548,203 +1647,203 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1752,16 +1851,16 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1769,16 +1868,16 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1786,16 +1885,16 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1803,16 +1902,16 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1820,16 +1919,16 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1837,16 +1936,16 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1854,16 +1953,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1871,16 +1970,16 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1888,798 +1987,951 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>289</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
